--- a/test_numbers.xlsx
+++ b/test_numbers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,113 +436,384 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Вопрос</t>
+          <t>Номер питання</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Правильный ответ</t>
+          <t>Питання</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Вес</t>
+          <t>Правильна відповідь</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Вариант 1</t>
+          <t>Вага</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Вариант 2</t>
+          <t>Варіант А</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Вариант 3</t>
+          <t>Варіант Б</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Вариант 4</t>
+          <t>Варіант В</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Варіант Г</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Тип завдання</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Какое число больше?</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Яке з чисел є натуральним?</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>А</t>
+        </is>
+      </c>
       <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.5</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ТО</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Выберите целое число</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="A3" t="n">
         <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Який з наведених дробів є правильним?</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Б</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5/3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ТО</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Какой результат деления?</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Оберіть числа, які діляться на 3 без залишку.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>АВ</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F4" t="n">
         <v>2</v>
       </c>
-      <c r="G4" t="n">
-        <v>2.5</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ТК</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Які з цих фігур є прямокутниками?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>БГ</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Трикутник</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Квадрат</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Коло</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Прямокутник</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ТК</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Обчисліть: 100 - 5 * 10</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Б</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ТО</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Який залишок від ділення 47 на 5?</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ТО</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Оберіть усі парні числа.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>АВДЖИ</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ТК</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Оберіть усі числа, які діляться на 5.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>АВДЖИ</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ТК</t>
+        </is>
       </c>
     </row>
   </sheetData>
